--- a/coor_figures.xlsx
+++ b/coor_figures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lise\Documents\Doctorat\Projet dyspraxie\dys_metatrace_jspsych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24308863-9FA6-4275-9284-9B155B1DA955}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7CD07A-2E9A-4913-8281-D633A88B2E0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8778" xr2:uid="{1C5666E4-138B-435E-8B80-62B351236362}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>coordinates figures 500x500</t>
   </si>
@@ -85,10 +85,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87AD16D-9631-4F8D-9560-9EAE6030F9FD}">
-  <dimension ref="A1:AK7"/>
+  <dimension ref="A1:AK13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AL3" sqref="AL3:AL7"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -417,363 +417,363 @@
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="2">
+    <row r="3" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>10</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>20</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>30</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>40</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>5</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>60</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>70</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>80</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>90</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>100</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>110</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>120</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>130</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>140</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <v>150</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <v>160</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="1">
         <v>170</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="1">
         <v>180</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="1">
         <v>190</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="1">
         <v>200</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3" s="1">
         <v>210</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3" s="1">
         <v>220</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3" s="1">
         <v>230</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3" s="1">
         <v>240</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3" s="1">
         <v>250</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3" s="1">
         <v>260</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AC3" s="1">
         <v>270</v>
       </c>
-      <c r="AD3" s="2">
+      <c r="AD3" s="1">
         <v>280</v>
       </c>
-      <c r="AE3" s="2">
+      <c r="AE3" s="1">
         <v>290</v>
       </c>
-      <c r="AF3" s="2">
+      <c r="AF3" s="1">
         <v>300</v>
       </c>
-      <c r="AG3" s="2">
+      <c r="AG3" s="1">
         <v>310</v>
       </c>
-      <c r="AH3" s="2">
+      <c r="AH3" s="1">
         <v>320</v>
       </c>
-      <c r="AI3" s="2">
+      <c r="AI3" s="1">
         <v>330</v>
       </c>
-      <c r="AJ3" s="2">
+      <c r="AJ3" s="1">
         <v>340</v>
       </c>
-      <c r="AK3" s="2">
+      <c r="AK3" s="1">
         <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C4">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D4">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E4">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F4">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G4">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H4">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="I4">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="J4">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K4">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L4">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M4">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="N4">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="O4">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="P4">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q4">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="R4">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="S4">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="T4">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="U4">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="V4">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="W4">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="X4">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Y4">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Z4">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AA4">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AB4">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AC4">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AD4">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AE4">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AF4">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AG4">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AH4">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AI4">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AJ4">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AK4">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C5">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D5">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E5">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F5">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G5">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H5">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I5">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J5">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K5">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L5">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M5">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="N5">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O5">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P5">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Q5">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="R5">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S5">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="T5">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="U5">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="V5">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="W5">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="X5">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Y5">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Z5">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AA5">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AB5">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC5">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AD5">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AE5">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AF5">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AG5">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AH5">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AI5">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AJ5">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AK5">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6">
@@ -886,7 +886,7 @@
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7">
@@ -996,6 +996,352 @@
       </c>
       <c r="AK7">
         <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1">
+        <v>45</v>
+      </c>
+      <c r="G9" s="1">
+        <v>55</v>
+      </c>
+      <c r="H9" s="1">
+        <v>65</v>
+      </c>
+      <c r="I9" s="1">
+        <v>75</v>
+      </c>
+      <c r="J9" s="1">
+        <v>85</v>
+      </c>
+      <c r="K9" s="1">
+        <v>95</v>
+      </c>
+      <c r="L9" s="1">
+        <v>105</v>
+      </c>
+      <c r="M9" s="1">
+        <v>115</v>
+      </c>
+      <c r="N9" s="1">
+        <v>125</v>
+      </c>
+      <c r="O9" s="1">
+        <v>135</v>
+      </c>
+      <c r="P9" s="1">
+        <v>145</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>155</v>
+      </c>
+      <c r="R9" s="1">
+        <v>165</v>
+      </c>
+      <c r="S9" s="1">
+        <v>175</v>
+      </c>
+      <c r="T9" s="1">
+        <v>185</v>
+      </c>
+      <c r="U9" s="1">
+        <v>195</v>
+      </c>
+      <c r="V9" s="1">
+        <v>205</v>
+      </c>
+      <c r="W9" s="1">
+        <v>215</v>
+      </c>
+      <c r="X9" s="1">
+        <v>225</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>235</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>245</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>255</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>265</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>275</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>285</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>295</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>305</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>315</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>325</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>335</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>345</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>253</v>
+      </c>
+      <c r="C10">
+        <v>253</v>
+      </c>
+      <c r="D10">
+        <v>253</v>
+      </c>
+      <c r="E10">
+        <v>253</v>
+      </c>
+      <c r="F10">
+        <v>253</v>
+      </c>
+      <c r="G10">
+        <v>253</v>
+      </c>
+      <c r="H10">
+        <v>253</v>
+      </c>
+      <c r="I10">
+        <v>253</v>
+      </c>
+      <c r="J10">
+        <v>253</v>
+      </c>
+      <c r="K10">
+        <v>253</v>
+      </c>
+      <c r="L10">
+        <v>253</v>
+      </c>
+      <c r="M10">
+        <v>253</v>
+      </c>
+      <c r="N10">
+        <v>253</v>
+      </c>
+      <c r="O10">
+        <v>253</v>
+      </c>
+      <c r="P10">
+        <v>253</v>
+      </c>
+      <c r="Q10">
+        <v>253</v>
+      </c>
+      <c r="R10">
+        <v>253</v>
+      </c>
+      <c r="S10">
+        <v>253</v>
+      </c>
+      <c r="T10">
+        <v>253</v>
+      </c>
+      <c r="U10">
+        <v>253</v>
+      </c>
+      <c r="V10">
+        <v>253</v>
+      </c>
+      <c r="W10">
+        <v>253</v>
+      </c>
+      <c r="X10">
+        <v>253</v>
+      </c>
+      <c r="Y10">
+        <v>253</v>
+      </c>
+      <c r="Z10">
+        <v>253</v>
+      </c>
+      <c r="AA10">
+        <v>253</v>
+      </c>
+      <c r="AB10">
+        <v>253</v>
+      </c>
+      <c r="AC10">
+        <v>253</v>
+      </c>
+      <c r="AD10">
+        <v>253</v>
+      </c>
+      <c r="AE10">
+        <v>253</v>
+      </c>
+      <c r="AF10">
+        <v>253</v>
+      </c>
+      <c r="AG10">
+        <v>253</v>
+      </c>
+      <c r="AH10">
+        <v>253</v>
+      </c>
+      <c r="AI10">
+        <v>253</v>
+      </c>
+      <c r="AJ10">
+        <v>253</v>
+      </c>
+      <c r="AK10">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>248</v>
+      </c>
+      <c r="C11">
+        <v>248</v>
+      </c>
+      <c r="D11">
+        <v>248</v>
+      </c>
+      <c r="E11">
+        <v>248</v>
+      </c>
+      <c r="F11">
+        <v>248</v>
+      </c>
+      <c r="G11">
+        <v>248</v>
+      </c>
+      <c r="H11">
+        <v>248</v>
+      </c>
+      <c r="I11">
+        <v>248</v>
+      </c>
+      <c r="J11">
+        <v>248</v>
+      </c>
+      <c r="K11">
+        <v>248</v>
+      </c>
+      <c r="L11">
+        <v>248</v>
+      </c>
+      <c r="M11">
+        <v>248</v>
+      </c>
+      <c r="N11">
+        <v>248</v>
+      </c>
+      <c r="O11">
+        <v>248</v>
+      </c>
+      <c r="P11">
+        <v>248</v>
+      </c>
+      <c r="Q11">
+        <v>248</v>
+      </c>
+      <c r="R11">
+        <v>248</v>
+      </c>
+      <c r="S11">
+        <v>248</v>
+      </c>
+      <c r="T11">
+        <v>248</v>
+      </c>
+      <c r="U11">
+        <v>248</v>
+      </c>
+      <c r="V11">
+        <v>248</v>
+      </c>
+      <c r="W11">
+        <v>248</v>
+      </c>
+      <c r="X11">
+        <v>248</v>
+      </c>
+      <c r="Y11">
+        <v>248</v>
+      </c>
+      <c r="Z11">
+        <v>248</v>
+      </c>
+      <c r="AA11">
+        <v>248</v>
+      </c>
+      <c r="AB11">
+        <v>248</v>
+      </c>
+      <c r="AC11">
+        <v>248</v>
+      </c>
+      <c r="AD11">
+        <v>248</v>
+      </c>
+      <c r="AE11">
+        <v>248</v>
+      </c>
+      <c r="AF11">
+        <v>248</v>
+      </c>
+      <c r="AG11">
+        <v>248</v>
+      </c>
+      <c r="AH11">
+        <v>248</v>
+      </c>
+      <c r="AI11">
+        <v>248</v>
+      </c>
+      <c r="AJ11">
+        <v>248</v>
+      </c>
+      <c r="AK11">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
